--- a/biology/Zoologie/Esturgeon_noir_d'Amérique/Esturgeon_noir_d'Amérique.xlsx
+++ b/biology/Zoologie/Esturgeon_noir_d'Amérique/Esturgeon_noir_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esturgeon_noir_d%27Am%C3%A9rique</t>
+          <t>Esturgeon_noir_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acipenser oxyrinchus, communément appelé Esturgeon noir d'Amérique (également Esturgeon atlantique, Esturgeon de mer, Esturgeon escargot ou Esturgeon guindé[1]) est un esturgeon de la côte est nord-Américaine. Sa distribution va du golfe du Saint-Laurent (où la plus grande population existe) jusqu'à la Floride. Une population disjointe (quasiment disparue) existe aussi dans la mer Baltique en Europe. D'une taille record de plus de 4 mètres c'est le plus gros poisson à fréquenter les eaux douces du Québec.
-Une étude génétique a montré que c'est cette espèce qui peuplait la mer du Nord et ses fleuves tributaires au Moyen Âge, et non l'esturgeon d'Europe (Acipenser sturio) comme on le croyait auparavant. Cette espèce a constitué une source alimentaire non négligeable en Europe autrefois, mais elle a aujourd'hui disparu de la mer du Nord[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acipenser oxyrinchus, communément appelé Esturgeon noir d'Amérique (également Esturgeon atlantique, Esturgeon de mer, Esturgeon escargot ou Esturgeon guindé) est un esturgeon de la côte est nord-Américaine. Sa distribution va du golfe du Saint-Laurent (où la plus grande population existe) jusqu'à la Floride. Une population disjointe (quasiment disparue) existe aussi dans la mer Baltique en Europe. D'une taille record de plus de 4 mètres c'est le plus gros poisson à fréquenter les eaux douces du Québec.
+Une étude génétique a montré que c'est cette espèce qui peuplait la mer du Nord et ses fleuves tributaires au Moyen Âge, et non l'esturgeon d'Europe (Acipenser sturio) comme on le croyait auparavant. Cette espèce a constitué une source alimentaire non négligeable en Europe autrefois, mais elle a aujourd'hui disparu de la mer du Nord.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esturgeon_noir_d%27Am%C3%A9rique</t>
+          <t>Esturgeon_noir_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'esturgeon noir est méconnu ; ce n'est que récemment qu'on a découvert des frayères dans l'estuaire du Saint-Laurent. À l'aide d'émetteurs on a pu également retrouver ses aires d'alimentation. Discret, l'esturgeon noir est un poisson anadrome. La reproduction aurait lieu tous les 4 à 10 ans pour les femelles et 2 à 4 ans pour les mâles. Lors de sa remontée des cours d'eau il cesse toute alimentation, ce qui explique le mystère de la localisation de ses frayères (aucune capture d'esturgeon à la ligne durant la période de fécondation). Étant un poisson de fond, il passe souvent inaperçu hormis lors de ses sauts spectaculaires hors de l'eau. Ce serait pour se débarrasser de parasites (dont la lamproie marine) qu'il effectuerait ces sauts.
 L'esturgeon se nourrit au fond, qu'il scrute à l'aide de ses quatre barbillons. Il se nourrit principalement de crustacés, d'insectes et de mollusques.
-L'esturgeon noir est pêché commercialement dans l'estuaire du Saint-Laurent principalement dans la zone comprise entre Montmagny et Saint-Jean-Port-Joli. La température de l'eau est le principal élément limitatif des pêches. Lorsqu'elle devient trop chaude en été les esturgeons meurent dans le filet et la qualité du produit en souffre. C'est pourquoi au milieu de l'été il y a une saison morte (les quotas étant très restrictifs, et facilement atteint[3], une attention particulière est portée à la qualité).
+L'esturgeon noir est pêché commercialement dans l'estuaire du Saint-Laurent principalement dans la zone comprise entre Montmagny et Saint-Jean-Port-Joli. La température de l'eau est le principal élément limitatif des pêches. Lorsqu'elle devient trop chaude en été les esturgeons meurent dans le filet et la qualité du produit en souffre. C'est pourquoi au milieu de l'été il y a une saison morte (les quotas étant très restrictifs, et facilement atteint, une attention particulière est portée à la qualité).
 </t>
         </is>
       </c>
